--- a/csv/Sites.xlsx
+++ b/csv/Sites.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Central Park</t>
   </si>
@@ -179,6 +179,21 @@
   <si>
     <t>Empire State Building</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/c7/Empire_State_Building_by_David_Shankbone_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/8/8b/MoMa_NY_USA_1.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/47/New_york_times_square-terabass.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/70/Metropolitan_Museum_of_Art_entrance_NYC.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/0/05/Southwest_corner_of_Central_Park%2C_looking_east%2C_NYC.jpg</t>
   </si>
 </sst>
 </file>
@@ -595,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,7 +632,7 @@
     <col min="13" max="13" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>1</v>
       </c>
@@ -657,8 +672,11 @@
       <c r="M1" t="s">
         <v>7</v>
       </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>2</v>
       </c>
@@ -698,8 +716,11 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>3</v>
       </c>
@@ -739,8 +760,11 @@
       <c r="M3" t="s">
         <v>19</v>
       </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>4</v>
       </c>
@@ -780,8 +804,11 @@
       <c r="M4" t="s">
         <v>31</v>
       </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>5</v>
       </c>
@@ -820,6 +847,9 @@
       </c>
       <c r="M5" t="s">
         <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/csv/Sites.xlsx
+++ b/csv/Sites.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="location" localSheetId="0">工作表1!$M$327</definedName>
     <definedName name="out2_" localSheetId="0">工作表1!$C$1:$L$5</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -43,157 +44,512 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
+  <si>
+    <t>http://www.centralparknyc.org</t>
+  </si>
+  <si>
+    <t>contact@centralparknyc.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 6:00 am - 1:00 am</t>
+  </si>
+  <si>
+    <t>More than 3 hours</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>City walk sightseeing, Walking, Biking, Birdwatching, Tennis, Rock climbing, Inline skating, Cross-country skiing, Getting married, Swimming</t>
+  </si>
+  <si>
+    <t>For more than 150 years, visitors have flocked to Central Park's 843 green acres in the heart of Manhattan. Since 1980, the Park has been managed by the Central Park Conservancy, in partnership with the public. Central Park is open 6 am to 1 am daily. Visit the official website of Central Park to learn more about Park happenings and activities and to learn how you to help Central Park!</t>
+  </si>
+  <si>
+    <t>http://www.metmuseum.org</t>
+  </si>
+  <si>
+    <t>visit@metmuseum.org</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dining</t>
+  </si>
+  <si>
+    <t>At New York City's most visited museum and attraction, you will experience the best of human creativity from across the globe. With collections spanning more than 5,000 years of culture, from prehistory to the present, the Metropolitan is a journey through the world's greatest art. One Met. Many Worlds. Where will the Met take you?</t>
+  </si>
+  <si>
+    <t>Time Square</t>
+  </si>
+  <si>
+    <t>http://www.timessquarenyc.org/index.aspx</t>
+  </si>
+  <si>
+    <t>info@timessquarealliance.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City walk sightseeing, Shopping	</t>
+  </si>
+  <si>
+    <t>Central area in NYC that has many shops, restaurants, office buildings and flashing billboards around it.</t>
+  </si>
+  <si>
+    <t>http://www.moma.org</t>
+  </si>
+  <si>
+    <t>info@moma.org</t>
+  </si>
+  <si>
+    <t>http://www.esbnyc.com/explore</t>
+  </si>
+  <si>
+    <t>1-2 hours</t>
+  </si>
+  <si>
+    <t>The world-famous Empire State Building offers unobstructed panoramic views of New York City and beyond from 8 a.M. Until 2 a.M. Daily. Our 86th and 102nd floor Observation Decks offer the two highest vantage points in New York City. Soaring 1,454 feet above Midtown Manhattan from base to antenna, the Empire State Building is the World's Most Famous Office Building. Named America's favorite building in a poll conducted by the American Institute of Architects, the Empire State Building is one of New York City's top tourist destinations. On a clear day, you can see up to five states from our Observation Decks - New York, New Jersey, Pennsylvania, Connecticut and Massachusetts. Guests can enjoy our outdoor viewing area on our open-air 86th floor Observatory, or our indoor climate-controlled viewing areas on the 86th and 102nd floors. We recently launched our new Multimedia Experience as well, which guides visitors through the extraordinary exhibits and breathtaking views with additional depth on the building's history in eight languages - including English, Spanish, French, Italian, Mandarin, Portuguese, Japanese and Korean. The Empire State Building aims to provide entertainment for guests of all ages. Bringing children? Have their picture taken with King Kong himself on our 80th floor from Thursdays through Mondays (12 p.M. Until 9 p.M.). Celebrating a first date or an anniversary? Enjoy romantic tunes from our saxophone player from 9 p.M. Until midnight every Thursday through Saturday night. Tickets can be purchased through our website. Our celebrated tower lights are often illuminated to commemorate holidays, events and special causes. In the Fall of 2012, we upgraded our tower lighting system from floodlights to one-of-a-kind LED tower lights. The state-of-the-art system allows customized lighting capabilities from a palette of over 16 million colors! To watch some of our recent light shows, visit our YouTube page. Reigning as the world's tallest building from 1931 to 1970, the Empire State Building is known for its distinct Art Deco style. Construction of the renowned icon only took one year and 45 days, and logged more than 7 million man hours. This is the fastest construction to date for a project of its scale. Additionally, from classics like An Affair to Remember and Sleepless in Seattle to recent hits such as Oblivion and Elf, our place in pop culture has been solidified since our early days. In fact, over 200 movies and TV shows have featured the Empire State Building in them!</t>
+  </si>
+  <si>
+    <t>+1 212-535-7710</t>
+  </si>
+  <si>
+    <t>(212) 768-1560</t>
+  </si>
+  <si>
+    <t>+1 212-708-9400</t>
+  </si>
+  <si>
+    <t>212-310-6600</t>
+  </si>
+  <si>
+    <t>+1 212-736-3100</t>
+  </si>
+  <si>
+    <t>The Museum of Modern Art's renowned collection of modern and contemporary art includes Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray, and many other great artists of our time. MoMA's collection also showcases photography, film, architecture, design, media, and performance art, and offers shopping and fine and casual dining options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Metropolitan Museum of Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Museum of Modern Art (MoMA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59th to 110th St., from Central Park West to 5th Ave., New York City, NY 10022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 5th Ave, New York City, NY 10028-0198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadway, New York City, NY 10036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 West 53rd Street, New York City, NY 10019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350 Fifth Avenue, Between 33rd and 34th Streets, New York City, NY 10118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empire State Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/c7/Empire_State_Building_by_David_Shankbone_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/8/8b/MoMa_NY_USA_1.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/47/New_york_times_square-terabass.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/70/Metropolitan_Museum_of_Art_entrance_NYC.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/0/05/Southwest_corner_of_Central_Park%2C_looking_east%2C_NYC.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top of the Rock Observation Deck </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212 698 2000</t>
+  </si>
+  <si>
+    <t>http://www.topoftherocknyc.com</t>
+  </si>
+  <si>
+    <t>info@topoftherocknyc.com</t>
+  </si>
+  <si>
+    <t>Sun - Sat 8:00 am - 11:00 pm</t>
+  </si>
+  <si>
+    <t>Manhattan Skyline</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Radio City Music Hall</t>
+  </si>
+  <si>
+    <t>Top of the Rock Observation Deck, the newly opened, 3-tiered observation deck on the 67th, 69th and 70th floors of 30 Rockefeller Plaza, is New York City's most amazing attraction! The unforgettable experience includes a panoramic 360-degree, unobstructed view from the 70th floor observatory, 850 feet in the sky! Hours of Operation: 8:00 AM - Midnight, last elevator goes up at 11:00 PM.Main entrance is located on 50th Street between 5th &amp; 6th Avenues.</t>
+  </si>
+  <si>
+    <t>Helicopter rides</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The National September 11 Memorial &amp; Museum</t>
+  </si>
+  <si>
+    <t>200 Liberty Street, World Trade Center, New York City, NY 10281</t>
+  </si>
+  <si>
+    <t>+1 212-312-8800</t>
+  </si>
+  <si>
+    <t>info@911memorial.org</t>
+  </si>
+  <si>
+    <t>http://www.911memorial.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 9:00 am - 8:00 pm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group tours/walking tour</t>
+  </si>
+  <si>
+    <t>The National September 11 Memorial &amp; Museum is a place of remembrance honoring those who perished in the terrorist attacks of September 11, 2001 and February 26, 1993. The 9/11 Memorial consists of two massive pools set within the original footprints of the Twin Towers with 30-foot waterfalls cascading down their sides. The nearly 3,000 names of the men, women, and children killed in the attacks are inscribed into bronze parapets surrounding the twin Memorial pools. The 9/11 Memorial is open daily from 7:30 a.m. - 9:00 p.m. and is free to the public. The 9/11 Memorial Museum displays monumental artifacts linked to the events of 9/11, while presenting intimate stories of loss, compassion, reckoning and recovery that are central to telling the story of the 2001 and 1993 attacks and the aftermath. It also explores the global impact of 9/11 and its continuing significance. The 9/11 Memorial Museum is open Sun - Thu, 9:00 a.m. - 8:00 p.m., last entry at 6:00 p.m. and Fri and Sat, 9:00 a.m. - 9:00 p.m., last entry at 7:00 p.m. Tickets are required. Open Daily.</t>
+  </si>
+  <si>
+    <t>Frick Collection</t>
+  </si>
+  <si>
+    <t>1 E. 70th St., Fifth Ave., New York City, NY 10021</t>
+  </si>
+  <si>
+    <t>212-288-0700</t>
+  </si>
+  <si>
+    <t>info@frick.org</t>
+  </si>
+  <si>
+    <t>http://www.frick.org</t>
+  </si>
+  <si>
+    <t>The High Line</t>
+  </si>
+  <si>
+    <t>Arts and crafts</t>
+  </si>
+  <si>
+    <t>Henry Frick once resided in this 18th-century French-style mansion; now its the home of his impressive art collection, which includes Titian, Vermeer, Rembrandt, El Greco, Goya, Whistler and more.</t>
+  </si>
+  <si>
+    <t>420 West 14th Street, Floor 2, New York City, NY 10014</t>
+  </si>
+  <si>
+    <t>+1 212-209-3370</t>
+  </si>
+  <si>
+    <t>http://groundzeromuseumworkshop.org</t>
+  </si>
+  <si>
+    <t>GroundZeroTICKET@aol.com</t>
+  </si>
+  <si>
+    <t>Ground Zero Museum Workshop: Images &amp; Artifacts from the Recovery. Want to feel what it was like to be with FDNY Firefighters on the front lines after the 9/11 attacks? Want to educate your kids about this tough subject in a gentle and non-threatening way? Before you visit the 9/11 Memorial at Ground Zero, experience the Stunning Images by Official Ground Zero Photographer Gary Marlon Suson. "Rare Photos" (New York Times) are displayed, some in lifelike 3D installations, as well as artifacts &amp; rare video. Rated in Trip Advisor's "Top 25 Museums in the USA" for 2013 and 2014. Guests are allowed to hold World Trade Center artifacts. Daily 2-hour tours include self-guided audio narration in Dolby Stereo, in English, Italian, French and Spanish. Proceeds shared with 9/11 Charity. "Incredible Images" says Fox News Channel. Known worldwide as the "Biggest LITTLE Museum in New York." The "first stop" before heading to visit Ground Zero. On display are "The Frozen Clock" - "The Bible Page" and many more well-known images featured on FOX NEWS and CNN. Small gift area sells books and posters. The Only 9/11 Museum in NYC that donates to FDNY charities. No graphic footage nor images from 9/11 are shown at GZMW. Tastefully and realistically presented.</t>
+  </si>
+  <si>
+    <t>Between 10th and 12th Avenues, New York City, NY 10014</t>
+  </si>
+  <si>
+    <t>212 206-9922</t>
+  </si>
+  <si>
+    <t>http://www.thehighline.org</t>
+  </si>
+  <si>
+    <t>info@thehighline.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 7:00 am - 10:00 pm</t>
+  </si>
+  <si>
+    <t>The High Line is an elevated railway transformed into a public park on Manhattan's West Side. The park features lush horticulture, artworks, seasonal food vendors, community programing, and unique views of the Hudson River and New York City skyline. The High Line runs between Gansevoort Street to West 34th Street, between 10th and 11th Avenues.</t>
+  </si>
+  <si>
+    <t>Grand Central Terminal</t>
+  </si>
+  <si>
+    <t>42nd Street and Park Avenue, New York City, NY 10017</t>
+  </si>
+  <si>
+    <t>212-340-2583</t>
+  </si>
+  <si>
+    <t>http://www.grandcentralterminal.com</t>
+  </si>
+  <si>
+    <t>info@grandcentralterminal.com</t>
+  </si>
+  <si>
+    <t>Sun - Sat 5:30 am - 2:00 am</t>
+  </si>
+  <si>
+    <t>Group tours/walking tour, Dining, Shopping</t>
+  </si>
+  <si>
+    <t>Opened in 1913, and one of America's busiest terminals, Grand Central boasts a wide array of shops and restaurants to serve the more than 500,000 travelers who pass through every day.</t>
+  </si>
+  <si>
+    <t>1260 6th Avenue (Avenue of the Americas), (between 50th and 51st Streets), New York City, NY 10020</t>
+  </si>
+  <si>
+    <t>212-247-4777</t>
+  </si>
+  <si>
+    <t>http://www.radiocity.com</t>
+  </si>
+  <si>
+    <t>feedback@radiocity.com</t>
+  </si>
+  <si>
+    <t>2-3 hours</t>
+  </si>
+  <si>
+    <t>The art deco theater that is home of the famous dancing Rockettes.</t>
+  </si>
+  <si>
+    <t>Lincoln Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The David RubenStein Atrium, Broadway &amp; 64th Street - main entrance, New York City, NY 10023</t>
+  </si>
+  <si>
+    <t>212-875-5350</t>
+  </si>
+  <si>
+    <t>http://lc.lincolncenter.org</t>
+  </si>
+  <si>
+    <t>tour_desk@lincolncenter.org</t>
+  </si>
+  <si>
+    <t>Learn more about Lincoln Center’s iconic landmarks—including the Revson Fountain, the newly transformed Alice Tully Hall, and the Metropolitan Opera House!Go behind the scenes at venues where a spectacular range of artists have performed, including Luciano Pavarotti, Mikhail Baryshnikov, Leonard Bernstein, Renée Fleming, and Bruce Springsteen.Each tour is unique, and you never know what might happen. You might sit in on a rehearsal, walk out onto a stage, or meet a star!Whether you’re just visiting New York City and want a glimpse of performing arts history, or you’re a Lincoln Center regular who wants to see your favorite venues from a new perspective, a guided tour will bring you closer to the world’s premier performing arts center.</t>
+  </si>
+  <si>
+    <t>The Cloisters</t>
+  </si>
+  <si>
+    <t>Fort Tryon Park, New York City, NY 10040</t>
+  </si>
+  <si>
+    <t>212 923 3700</t>
+  </si>
+  <si>
+    <t>http://www.metmuseum.org/visit/visit-the-cloisters</t>
+  </si>
+  <si>
+    <t>cloisters@metmuseum.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 10:00 am - 4:45 pm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch of the Metropolitan Museum of Art that was constructed out of sections of French medieval monasteries, offers an extensive collection of statues, paintings, stained glass windows and tapestries.</t>
+  </si>
+  <si>
+    <t>New York Public Library</t>
+  </si>
+  <si>
+    <t>476 5th Ave New York, NY 10018, New York City, NY 10018</t>
+  </si>
+  <si>
+    <t>212 930 0800</t>
+  </si>
+  <si>
+    <t>http://www.nypl.org</t>
+  </si>
+  <si>
+    <t>nyplweb@nypl.org</t>
+  </si>
+  <si>
+    <t>Two marble lions mark the entrance to this Beaux Arts masterpiece, a National Historic Landmark containing more than six million books.</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rockefeller Center</t>
+  </si>
+  <si>
+    <t>45 Rockefeller Plaza, New York City, NY 10111</t>
+  </si>
+  <si>
+    <t>212-332-6868</t>
+  </si>
+  <si>
+    <t>http://www.rockefellercenter.com</t>
+  </si>
+  <si>
+    <t>Ice skating</t>
+  </si>
+  <si>
+    <t>This complex is famous for its ice rink and the GE building, headquarters of the Peacock network.</t>
+  </si>
+  <si>
+    <t>Madison Square Garden</t>
+  </si>
+  <si>
+    <t>4 Penn Plaza, New York City, NY 10001</t>
+  </si>
+  <si>
+    <t>(212) 465-6741</t>
+  </si>
+  <si>
+    <t>Statue of Liberty</t>
+  </si>
+  <si>
+    <t>Liberty Island, New York City, NY 10004</t>
+  </si>
+  <si>
+    <t>+1 212-363-3200</t>
+  </si>
+  <si>
+    <t>go.nps.gov/statueofliberty</t>
+  </si>
+  <si>
+    <t>Sun - Sat 8:30 am - 4:00 pm</t>
+  </si>
+  <si>
+    <t>Group tours/city tour</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Statue of Liberty Enlightening the World was a gift of friendship from the people of France to the people of the United States and is a universal symbol of freedom and democracy. The Statue of Liberty was dedicated on October 28, 1886, designated as a National Monument in 1924 and restored for her centennial on July 4, 1986.</t>
+  </si>
+  <si>
+    <t>West 4th Street, Greenwich Village, New York City, NY 10001</t>
+  </si>
+  <si>
+    <t>Mon - Fri 9:00 am - 5:00 pm</t>
+  </si>
+  <si>
+    <t>A 9.75-acre city park in Greenwich Village, characterized by its large, central fountain, and known as a major center of community activity for the neighborhood residents.</t>
+  </si>
   <si>
     <t>Central Park</t>
-  </si>
-  <si>
-    <t>http://www.centralparknyc.org</t>
-  </si>
-  <si>
-    <t>contact@centralparknyc.org</t>
-  </si>
-  <si>
-    <t>Sun - Sat 6:00 am - 1:00 am</t>
-  </si>
-  <si>
-    <t>More than 3 hours</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>City walk sightseeing, Walking, Biking, Birdwatching, Tennis, Rock climbing, Inline skating, Cross-country skiing, Getting married, Swimming</t>
-  </si>
-  <si>
-    <t>For more than 150 years, visitors have flocked to Central Park's 843 green acres in the heart of Manhattan. Since 1980, the Park has been managed by the Central Park Conservancy, in partnership with the public. Central Park is open 6 am to 1 am daily. Visit the official website of Central Park to learn more about Park happenings and activities and to learn how you to help Central Park!</t>
-  </si>
-  <si>
-    <t>http://www.metmuseum.org</t>
-  </si>
-  <si>
-    <t>visit@metmuseum.org</t>
-  </si>
-  <si>
-    <t>Sun - Thu 10:00 am - 5:30 pm, Fri - Sat 10:00 am - 9:00 pm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Dining</t>
-  </si>
-  <si>
-    <t>At New York City's most visited museum and attraction, you will experience the best of human creativity from across the globe. With collections spanning more than 5,000 years of culture, from prehistory to the present, the Metropolitan is a journey through the world's greatest art. One Met. Many Worlds. Where will the Met take you?</t>
-  </si>
-  <si>
-    <t>Time Square</t>
-  </si>
-  <si>
-    <t>http://www.timessquarenyc.org/index.aspx</t>
-  </si>
-  <si>
-    <t>info@timessquarealliance.org</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City walk sightseeing, Shopping	</t>
-  </si>
-  <si>
-    <t>Central area in NYC that has many shops, restaurants, office buildings and flashing billboards around it.</t>
-  </si>
-  <si>
-    <t>http://www.moma.org</t>
-  </si>
-  <si>
-    <t>info@moma.org</t>
-  </si>
-  <si>
-    <t>Fri 10:30 am - 8:00 pm, Sat - Thu 10:30 am - 5:30 pm</t>
-  </si>
-  <si>
-    <t>http://www.esbnyc.com/explore</t>
-  </si>
-  <si>
-    <t>1-2 hours</t>
-  </si>
-  <si>
-    <t>The world-famous Empire State Building offers unobstructed panoramic views of New York City and beyond from 8 a.M. Until 2 a.M. Daily. Our 86th and 102nd floor Observation Decks offer the two highest vantage points in New York City. Soaring 1,454 feet above Midtown Manhattan from base to antenna, the Empire State Building is the World's Most Famous Office Building. Named America's favorite building in a poll conducted by the American Institute of Architects, the Empire State Building is one of New York City's top tourist destinations. On a clear day, you can see up to five states from our Observation Decks - New York, New Jersey, Pennsylvania, Connecticut and Massachusetts. Guests can enjoy our outdoor viewing area on our open-air 86th floor Observatory, or our indoor climate-controlled viewing areas on the 86th and 102nd floors. We recently launched our new Multimedia Experience as well, which guides visitors through the extraordinary exhibits and breathtaking views with additional depth on the building's history in eight languages - including English, Spanish, French, Italian, Mandarin, Portuguese, Japanese and Korean. The Empire State Building aims to provide entertainment for guests of all ages. Bringing children? Have their picture taken with King Kong himself on our 80th floor from Thursdays through Mondays (12 p.M. Until 9 p.M.). Celebrating a first date or an anniversary? Enjoy romantic tunes from our saxophone player from 9 p.M. Until midnight every Thursday through Saturday night. Tickets can be purchased through our website. Our celebrated tower lights are often illuminated to commemorate holidays, events and special causes. In the Fall of 2012, we upgraded our tower lighting system from floodlights to one-of-a-kind LED tower lights. The state-of-the-art system allows customized lighting capabilities from a palette of over 16 million colors! To watch some of our recent light shows, visit our YouTube page. Reigning as the world's tallest building from 1931 to 1970, the Empire State Building is known for its distinct Art Deco style. Construction of the renowned icon only took one year and 45 days, and logged more than 7 million man hours. This is the fastest construction to date for a project of its scale. Additionally, from classics like An Affair to Remember and Sleepless in Seattle to recent hits such as Oblivion and Elf, our place in pop culture has been solidified since our early days. In fact, over 200 movies and TV shows have featured the Empire State Building in them!</t>
-  </si>
-  <si>
-    <t>+1 212-535-7710</t>
-  </si>
-  <si>
-    <t>(212) 768-1560</t>
-  </si>
-  <si>
-    <t>+1 212-708-9400</t>
-  </si>
-  <si>
-    <t>212-310-6600</t>
-  </si>
-  <si>
-    <t>+1 212-736-3100</t>
-  </si>
-  <si>
-    <t>The Museum of Modern Art's renowned collection of modern and contemporary art includes Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray, and many other great artists of our time. MoMA's collection also showcases photography, film, architecture, design, media, and performance art, and offers shopping and fine and casual dining options.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>New York</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Metropolitan Museum of Art</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Museum of Modern Art (MoMA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59th to 110th St., from Central Park West to 5th Ave., New York City, NY 10022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 5th Ave, New York City, NY 10028-0198</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broadway, New York City, NY 10036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 West 53rd Street, New York City, NY 10019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350 Fifth Avenue, Between 33rd and 34th Streets, New York City, NY 10118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empire State Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/c/c7/Empire_State_Building_by_David_Shankbone_crop.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/8/8b/MoMa_NY_USA_1.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/47/New_york_times_square-terabass.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/7/70/Metropolitan_Museum_of_Art_entrance_NYC.JPG</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/0/05/Southwest_corner_of_Central_Park%2C_looking_east%2C_NYC.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun - Thu 10:00 am - 5:30 pm; Fri - Sat 10:00 am - 9:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 11:00 am - 5:00 pm; Tue - Sat 10:00 am - 6:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 11:30 am - 4:30 pm; Mon - Sat 10:30 am - 4:30 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 1:00 pm - 5:00 pm; Mon 10:00 am - 6:00 pm; Tue - Wed 10:00 am - 8:00 pm; Thu - Sat 10:00 am - 6:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri 10:30 am - 8:00 pm; Sat - Thu 10:30 am - 5:30 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington Square Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/5/51/WTCmemorialJune2012.png</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/b/b9/Above_Gotham.jpg/1920px-Above_Gotham.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/NYC_Top_of_the_Rock_Pano.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/41/Henry_C_Frick_House_001.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/db/Aerial_photo_of_WTC_groundzero.jpg</t>
+  </si>
+  <si>
+    <t>World Trade Center site: Ground Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/en/1/1d/High_Line_20th_Street_looking_downtown.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/73/Grand_Central_Station_Main_Concourse_Jan_2006.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/cf/Radio_City_Music_Hall_Panorama.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d3/Lincoln_Center_Twilight.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/9/9d/The_Cloisters_Hudson_River_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/5/5b/New_York_Public_Library_May_2011.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d6/Britney_Spears_MSG.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/a/a1/Statue_of_Liberty_7.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/4e/Washington_Square_Arch_by_David_Shankbone.jpg</t>
+  </si>
+  <si>
+    <t>30 Rockefeller Center, New York City, NY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/1/11/Rockefeller_Center_%282006%29.JPG</t>
   </si>
 </sst>
 </file>
@@ -252,10 +608,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,17 +687,81 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="74">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -610,18 +1094,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" customWidth="1"/>
     <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
@@ -629,230 +1113,861 @@
     <col min="10" max="10" width="40.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
     <col min="12" max="12" width="51.5" customWidth="1"/>
-    <col min="13" max="13" width="60.83203125" customWidth="1"/>
+    <col min="13" max="13" width="56.33203125" customWidth="1"/>
+    <col min="14" max="14" width="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D1">
         <v>10022</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="O1">
+        <v>40.783332999999999</v>
+      </c>
+      <c r="P1">
+        <v>-73.966667000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>10028</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>40.779446999999998</v>
+      </c>
+      <c r="P2">
+        <v>-73.96311</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>10036</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="O3">
+        <v>40.757730000000002</v>
+      </c>
+      <c r="P3">
+        <v>-73.985708000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>10019</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>40.761484000000003</v>
+      </c>
+      <c r="P4">
+        <v>-73.977664000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>10118</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5">
+        <v>40.748432999999999</v>
+      </c>
+      <c r="P5">
+        <v>-73.985656000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6">
+        <v>40.759</v>
+      </c>
+      <c r="P6">
+        <v>-73.978999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>10281</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8">
+        <v>40.711694000000001</v>
+      </c>
+      <c r="P8">
+        <v>-74.013610999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>10021</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9">
+        <v>40.7712</v>
+      </c>
+      <c r="P9">
+        <v>-73.967299999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10">
+        <v>10014</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10">
+        <v>40.711641</v>
+      </c>
+      <c r="P10">
+        <v>-74.012253000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>10014</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11">
+        <v>40.748333000000002</v>
+      </c>
+      <c r="P11">
+        <v>-74.004999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>10017</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12">
+        <v>40.752800000000001</v>
+      </c>
+      <c r="P12">
+        <v>-73.976522000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>10020</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13">
+        <v>40.759721999999996</v>
+      </c>
+      <c r="P13">
+        <v>-73.979167000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>10023</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14">
+        <v>40.772311000000002</v>
+      </c>
+      <c r="P14">
+        <v>-73.983402999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>10040</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15">
+        <v>40.864840000000001</v>
+      </c>
+      <c r="P15">
+        <v>-73.931905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>10018</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16">
+        <v>40.752699999999997</v>
+      </c>
+      <c r="P16">
+        <v>-73.981800000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>10111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17">
+        <v>40.758611000000002</v>
+      </c>
+      <c r="P17">
+        <v>-73.979167000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18">
+        <v>10001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18">
+        <v>40.750556000000003</v>
+      </c>
+      <c r="P18">
+        <v>-73.993611000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19">
+        <v>10004</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19">
+        <v>40.689166999999998</v>
+      </c>
+      <c r="P19">
+        <v>-74.044443999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20">
+        <v>10001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" t="s">
+        <v>135</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20">
+        <v>40.730832999999997</v>
+      </c>
+      <c r="P20">
+        <v>-73.997500000000002</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:Q20">
+    <sortCondition ref="A19"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/csv/Sites.xlsx
+++ b/csv/Sites.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="location" localSheetId="0">工作表1!$M$327</definedName>
+    <definedName name="location" localSheetId="0">工作表1!$P$327</definedName>
     <definedName name="out2_" localSheetId="0">工作表1!$C$1:$L$5</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="203">
   <si>
     <t>http://www.centralparknyc.org</t>
   </si>
@@ -64,492 +64,662 @@
     <t>City walk sightseeing, Walking, Biking, Birdwatching, Tennis, Rock climbing, Inline skating, Cross-country skiing, Getting married, Swimming</t>
   </si>
   <si>
+    <t>http://www.metmuseum.org</t>
+  </si>
+  <si>
+    <t>visit@metmuseum.org</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Dining</t>
+  </si>
+  <si>
+    <t>At New York City's most visited museum and attraction, you will experience the best of human creativity from across the globe. With collections spanning more than 5,000 years of culture, from prehistory to the present, the Metropolitan is a journey through the world's greatest art. One Met. Many Worlds. Where will the Met take you?</t>
+  </si>
+  <si>
+    <t>Time Square</t>
+  </si>
+  <si>
+    <t>http://www.timessquarenyc.org/index.aspx</t>
+  </si>
+  <si>
+    <t>info@timessquarealliance.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City walk sightseeing, Shopping	</t>
+  </si>
+  <si>
+    <t>Central area in NYC that has many shops, restaurants, office buildings and flashing billboards around it.</t>
+  </si>
+  <si>
+    <t>http://www.moma.org</t>
+  </si>
+  <si>
+    <t>info@moma.org</t>
+  </si>
+  <si>
+    <t>http://www.esbnyc.com/explore</t>
+  </si>
+  <si>
+    <t>1-2 hours</t>
+  </si>
+  <si>
+    <t>The world-famous Empire State Building offers unobstructed panoramic views of New York City and beyond from 8 a.M. Until 2 a.M. Daily. Our 86th and 102nd floor Observation Decks offer the two highest vantage points in New York City. Soaring 1,454 feet above Midtown Manhattan from base to antenna, the Empire State Building is the World's Most Famous Office Building. Named America's favorite building in a poll conducted by the American Institute of Architects, the Empire State Building is one of New York City's top tourist destinations. On a clear day, you can see up to five states from our Observation Decks - New York, New Jersey, Pennsylvania, Connecticut and Massachusetts. Guests can enjoy our outdoor viewing area on our open-air 86th floor Observatory, or our indoor climate-controlled viewing areas on the 86th and 102nd floors. We recently launched our new Multimedia Experience as well, which guides visitors through the extraordinary exhibits and breathtaking views with additional depth on the building's history in eight languages - including English, Spanish, French, Italian, Mandarin, Portuguese, Japanese and Korean. The Empire State Building aims to provide entertainment for guests of all ages. Bringing children? Have their picture taken with King Kong himself on our 80th floor from Thursdays through Mondays (12 p.M. Until 9 p.M.). Celebrating a first date or an anniversary? Enjoy romantic tunes from our saxophone player from 9 p.M. Until midnight every Thursday through Saturday night. Tickets can be purchased through our website. Our celebrated tower lights are often illuminated to commemorate holidays, events and special causes. In the Fall of 2012, we upgraded our tower lighting system from floodlights to one-of-a-kind LED tower lights. The state-of-the-art system allows customized lighting capabilities from a palette of over 16 million colors! To watch some of our recent light shows, visit our YouTube page. Reigning as the world's tallest building from 1931 to 1970, the Empire State Building is known for its distinct Art Deco style. Construction of the renowned icon only took one year and 45 days, and logged more than 7 million man hours. This is the fastest construction to date for a project of its scale. Additionally, from classics like An Affair to Remember and Sleepless in Seattle to recent hits such as Oblivion and Elf, our place in pop culture has been solidified since our early days. In fact, over 200 movies and TV shows have featured the Empire State Building in them!</t>
+  </si>
+  <si>
+    <t>+1 212-535-7710</t>
+  </si>
+  <si>
+    <t>(212) 768-1560</t>
+  </si>
+  <si>
+    <t>+1 212-708-9400</t>
+  </si>
+  <si>
+    <t>212-310-6600</t>
+  </si>
+  <si>
+    <t>+1 212-736-3100</t>
+  </si>
+  <si>
+    <t>The Museum of Modern Art's renowned collection of modern and contemporary art includes Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray, and many other great artists of our time. MoMA's collection also showcases photography, film, architecture, design, media, and performance art, and offers shopping and fine and casual dining options.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New York</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Metropolitan Museum of Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Museum of Modern Art (MoMA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59th to 110th St., from Central Park West to 5th Ave., New York City, NY 10022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 5th Ave, New York City, NY 10028-0198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broadway, New York City, NY 10036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 West 53rd Street, New York City, NY 10019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350 Fifth Avenue, Between 33rd and 34th Streets, New York City, NY 10118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empire State Building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/c7/Empire_State_Building_by_David_Shankbone_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/8/8b/MoMa_NY_USA_1.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/47/New_york_times_square-terabass.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/70/Metropolitan_Museum_of_Art_entrance_NYC.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/0/05/Southwest_corner_of_Central_Park%2C_looking_east%2C_NYC.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top of the Rock Observation Deck </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>212 698 2000</t>
+  </si>
+  <si>
+    <t>http://www.topoftherocknyc.com</t>
+  </si>
+  <si>
+    <t>info@topoftherocknyc.com</t>
+  </si>
+  <si>
+    <t>Sun - Sat 8:00 am - 11:00 pm</t>
+  </si>
+  <si>
+    <t>Manhattan Skyline</t>
+  </si>
+  <si>
+    <t>New York City, NY</t>
+  </si>
+  <si>
+    <t>Radio City Music Hall</t>
+  </si>
+  <si>
+    <t>Helicopter rides</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The National September 11 Memorial &amp; Museum</t>
+  </si>
+  <si>
+    <t>200 Liberty Street, World Trade Center, New York City, NY 10281</t>
+  </si>
+  <si>
+    <t>+1 212-312-8800</t>
+  </si>
+  <si>
+    <t>info@911memorial.org</t>
+  </si>
+  <si>
+    <t>http://www.911memorial.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 9:00 am - 8:00 pm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group tours/walking tour</t>
+  </si>
+  <si>
+    <t>Frick Collection</t>
+  </si>
+  <si>
+    <t>1 E. 70th St., Fifth Ave., New York City, NY 10021</t>
+  </si>
+  <si>
+    <t>212-288-0700</t>
+  </si>
+  <si>
+    <t>info@frick.org</t>
+  </si>
+  <si>
+    <t>http://www.frick.org</t>
+  </si>
+  <si>
+    <t>The High Line</t>
+  </si>
+  <si>
+    <t>Arts and crafts</t>
+  </si>
+  <si>
+    <t>Henry Frick once resided in this 18th-century French-style mansion; now its the home of his impressive art collection, which includes Titian, Vermeer, Rembrandt, El Greco, Goya, Whistler and more.</t>
+  </si>
+  <si>
+    <t>420 West 14th Street, Floor 2, New York City, NY 10014</t>
+  </si>
+  <si>
+    <t>+1 212-209-3370</t>
+  </si>
+  <si>
+    <t>http://groundzeromuseumworkshop.org</t>
+  </si>
+  <si>
+    <t>GroundZeroTICKET@aol.com</t>
+  </si>
+  <si>
+    <t>Between 10th and 12th Avenues, New York City, NY 10014</t>
+  </si>
+  <si>
+    <t>212 206-9922</t>
+  </si>
+  <si>
+    <t>http://www.thehighline.org</t>
+  </si>
+  <si>
+    <t>info@thehighline.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 7:00 am - 10:00 pm</t>
+  </si>
+  <si>
+    <t>Grand Central Terminal</t>
+  </si>
+  <si>
+    <t>42nd Street and Park Avenue, New York City, NY 10017</t>
+  </si>
+  <si>
+    <t>212-340-2583</t>
+  </si>
+  <si>
+    <t>http://www.grandcentralterminal.com</t>
+  </si>
+  <si>
+    <t>info@grandcentralterminal.com</t>
+  </si>
+  <si>
+    <t>Sun - Sat 5:30 am - 2:00 am</t>
+  </si>
+  <si>
+    <t>Group tours/walking tour, Dining, Shopping</t>
+  </si>
+  <si>
+    <t>Opened in 1913, and one of America's busiest terminals, Grand Central boasts a wide array of shops and restaurants to serve the more than 500,000 travelers who pass through every day.</t>
+  </si>
+  <si>
+    <t>1260 6th Avenue (Avenue of the Americas), (between 50th and 51st Streets), New York City, NY 10020</t>
+  </si>
+  <si>
+    <t>212-247-4777</t>
+  </si>
+  <si>
+    <t>http://www.radiocity.com</t>
+  </si>
+  <si>
+    <t>feedback@radiocity.com</t>
+  </si>
+  <si>
+    <t>2-3 hours</t>
+  </si>
+  <si>
+    <t>The art deco theater that is home of the famous dancing Rockettes.</t>
+  </si>
+  <si>
+    <t>Lincoln Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The David RubenStein Atrium, Broadway &amp; 64th Street - main entrance, New York City, NY 10023</t>
+  </si>
+  <si>
+    <t>212-875-5350</t>
+  </si>
+  <si>
+    <t>http://lc.lincolncenter.org</t>
+  </si>
+  <si>
+    <t>tour_desk@lincolncenter.org</t>
+  </si>
+  <si>
+    <t>The Cloisters</t>
+  </si>
+  <si>
+    <t>Fort Tryon Park, New York City, NY 10040</t>
+  </si>
+  <si>
+    <t>212 923 3700</t>
+  </si>
+  <si>
+    <t>http://www.metmuseum.org/visit/visit-the-cloisters</t>
+  </si>
+  <si>
+    <t>cloisters@metmuseum.org</t>
+  </si>
+  <si>
+    <t>Sun - Sat 10:00 am - 4:45 pm</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch of the Metropolitan Museum of Art that was constructed out of sections of French medieval monasteries, offers an extensive collection of statues, paintings, stained glass windows and tapestries.</t>
+  </si>
+  <si>
+    <t>New York Public Library</t>
+  </si>
+  <si>
+    <t>476 5th Ave New York, NY 10018, New York City, NY 10018</t>
+  </si>
+  <si>
+    <t>212 930 0800</t>
+  </si>
+  <si>
+    <t>http://www.nypl.org</t>
+  </si>
+  <si>
+    <t>nyplweb@nypl.org</t>
+  </si>
+  <si>
+    <t>Two marble lions mark the entrance to this Beaux Arts masterpiece, a National Historic Landmark containing more than six million books.</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rockefeller Center</t>
+  </si>
+  <si>
+    <t>45 Rockefeller Plaza, New York City, NY 10111</t>
+  </si>
+  <si>
+    <t>212-332-6868</t>
+  </si>
+  <si>
+    <t>http://www.rockefellercenter.com</t>
+  </si>
+  <si>
+    <t>Ice skating</t>
+  </si>
+  <si>
+    <t>This complex is famous for its ice rink and the GE building, headquarters of the Peacock network.</t>
+  </si>
+  <si>
+    <t>Madison Square Garden</t>
+  </si>
+  <si>
+    <t>4 Penn Plaza, New York City, NY 10001</t>
+  </si>
+  <si>
+    <t>(212) 465-6741</t>
+  </si>
+  <si>
+    <t>Statue of Liberty</t>
+  </si>
+  <si>
+    <t>Liberty Island, New York City, NY 10004</t>
+  </si>
+  <si>
+    <t>+1 212-363-3200</t>
+  </si>
+  <si>
+    <t>go.nps.gov/statueofliberty</t>
+  </si>
+  <si>
+    <t>Sun - Sat 8:30 am - 4:00 pm</t>
+  </si>
+  <si>
+    <t>Group tours/city tour</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Statue of Liberty Enlightening the World was a gift of friendship from the people of France to the people of the United States and is a universal symbol of freedom and democracy. The Statue of Liberty was dedicated on October 28, 1886, designated as a National Monument in 1924 and restored for her centennial on July 4, 1986.</t>
+  </si>
+  <si>
+    <t>West 4th Street, Greenwich Village, New York City, NY 10001</t>
+  </si>
+  <si>
+    <t>Mon - Fri 9:00 am - 5:00 pm</t>
+  </si>
+  <si>
+    <t>Central Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun - Thu 10:00 am - 5:30 pm; Fri - Sat 10:00 am - 9:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 11:00 am - 5:00 pm; Tue - Sat 10:00 am - 6:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 11:30 am - 4:30 pm; Mon - Sat 10:30 am - 4:30 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun 1:00 pm - 5:00 pm; Mon 10:00 am - 6:00 pm; Tue - Wed 10:00 am - 8:00 pm; Thu - Sat 10:00 am - 6:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri 10:30 am - 8:00 pm; Sat - Thu 10:30 am - 5:30 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington Square Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/5/51/WTCmemorialJune2012.png</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/b/b9/Above_Gotham.jpg/1920px-Above_Gotham.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/NYC_Top_of_the_Rock_Pano.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/41/Henry_C_Frick_House_001.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/db/Aerial_photo_of_WTC_groundzero.jpg</t>
+  </si>
+  <si>
+    <t>World Trade Center site: Ground Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/en/1/1d/High_Line_20th_Street_looking_downtown.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/7/73/Grand_Central_Station_Main_Concourse_Jan_2006.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/cf/Radio_City_Music_Hall_Panorama.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d3/Lincoln_Center_Twilight.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/9/9d/The_Cloisters_Hudson_River_crop.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/5/5b/New_York_Public_Library_May_2011.JPG</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d6/Britney_Spears_MSG.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/a/a1/Statue_of_Liberty_7.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/4e/Washington_Square_Arch_by_David_Shankbone.jpg</t>
+  </si>
+  <si>
+    <t>30 Rockefeller Center, New York City, NY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/1/11/Rockefeller_Center_%282006%29.JPG</t>
+  </si>
+  <si>
     <t>For more than 150 years, visitors have flocked to Central Park's 843 green acres in the heart of Manhattan. Since 1980, the Park has been managed by the Central Park Conservancy, in partnership with the public. Central Park is open 6 am to 1 am daily. Visit the official website of Central Park to learn more about Park happenings and activities and to learn how you to help Central Park!</t>
-  </si>
-  <si>
-    <t>http://www.metmuseum.org</t>
-  </si>
-  <si>
-    <t>visit@metmuseum.org</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Dining</t>
-  </si>
-  <si>
-    <t>At New York City's most visited museum and attraction, you will experience the best of human creativity from across the globe. With collections spanning more than 5,000 years of culture, from prehistory to the present, the Metropolitan is a journey through the world's greatest art. One Met. Many Worlds. Where will the Met take you?</t>
-  </si>
-  <si>
-    <t>Time Square</t>
-  </si>
-  <si>
-    <t>http://www.timessquarenyc.org/index.aspx</t>
-  </si>
-  <si>
-    <t>info@timessquarealliance.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City walk sightseeing, Shopping	</t>
-  </si>
-  <si>
-    <t>Central area in NYC that has many shops, restaurants, office buildings and flashing billboards around it.</t>
-  </si>
-  <si>
-    <t>http://www.moma.org</t>
-  </si>
-  <si>
-    <t>info@moma.org</t>
-  </si>
-  <si>
-    <t>http://www.esbnyc.com/explore</t>
-  </si>
-  <si>
-    <t>1-2 hours</t>
-  </si>
-  <si>
-    <t>The world-famous Empire State Building offers unobstructed panoramic views of New York City and beyond from 8 a.M. Until 2 a.M. Daily. Our 86th and 102nd floor Observation Decks offer the two highest vantage points in New York City. Soaring 1,454 feet above Midtown Manhattan from base to antenna, the Empire State Building is the World's Most Famous Office Building. Named America's favorite building in a poll conducted by the American Institute of Architects, the Empire State Building is one of New York City's top tourist destinations. On a clear day, you can see up to five states from our Observation Decks - New York, New Jersey, Pennsylvania, Connecticut and Massachusetts. Guests can enjoy our outdoor viewing area on our open-air 86th floor Observatory, or our indoor climate-controlled viewing areas on the 86th and 102nd floors. We recently launched our new Multimedia Experience as well, which guides visitors through the extraordinary exhibits and breathtaking views with additional depth on the building's history in eight languages - including English, Spanish, French, Italian, Mandarin, Portuguese, Japanese and Korean. The Empire State Building aims to provide entertainment for guests of all ages. Bringing children? Have their picture taken with King Kong himself on our 80th floor from Thursdays through Mondays (12 p.M. Until 9 p.M.). Celebrating a first date or an anniversary? Enjoy romantic tunes from our saxophone player from 9 p.M. Until midnight every Thursday through Saturday night. Tickets can be purchased through our website. Our celebrated tower lights are often illuminated to commemorate holidays, events and special causes. In the Fall of 2012, we upgraded our tower lighting system from floodlights to one-of-a-kind LED tower lights. The state-of-the-art system allows customized lighting capabilities from a palette of over 16 million colors! To watch some of our recent light shows, visit our YouTube page. Reigning as the world's tallest building from 1931 to 1970, the Empire State Building is known for its distinct Art Deco style. Construction of the renowned icon only took one year and 45 days, and logged more than 7 million man hours. This is the fastest construction to date for a project of its scale. Additionally, from classics like An Affair to Remember and Sleepless in Seattle to recent hits such as Oblivion and Elf, our place in pop culture has been solidified since our early days. In fact, over 200 movies and TV shows have featured the Empire State Building in them!</t>
-  </si>
-  <si>
-    <t>+1 212-535-7710</t>
-  </si>
-  <si>
-    <t>(212) 768-1560</t>
-  </si>
-  <si>
-    <t>+1 212-708-9400</t>
-  </si>
-  <si>
-    <t>212-310-6600</t>
-  </si>
-  <si>
-    <t>+1 212-736-3100</t>
-  </si>
-  <si>
-    <t>The Museum of Modern Art's renowned collection of modern and contemporary art includes Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray, and many other great artists of our time. MoMA's collection also showcases photography, film, architecture, design, media, and performance art, and offers shopping and fine and casual dining options.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New York</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Metropolitan Museum of Art</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Museum of Modern Art (MoMA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59th to 110th St., from Central Park West to 5th Ave., New York City, NY 10022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000 5th Ave, New York City, NY 10028-0198</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Broadway, New York City, NY 10036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 West 53rd Street, New York City, NY 10019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350 Fifth Avenue, Between 33rd and 34th Streets, New York City, NY 10118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empire State Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/c/c7/Empire_State_Building_by_David_Shankbone_crop.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/8/8b/MoMa_NY_USA_1.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/47/New_york_times_square-terabass.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/7/70/Metropolitan_Museum_of_Art_entrance_NYC.JPG</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/0/05/Southwest_corner_of_Central_Park%2C_looking_east%2C_NYC.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top of the Rock Observation Deck </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>212 698 2000</t>
-  </si>
-  <si>
-    <t>http://www.topoftherocknyc.com</t>
-  </si>
-  <si>
-    <t>info@topoftherocknyc.com</t>
-  </si>
-  <si>
-    <t>Sun - Sat 8:00 am - 11:00 pm</t>
-  </si>
-  <si>
-    <t>Manhattan Skyline</t>
-  </si>
-  <si>
-    <t>New York City, NY</t>
-  </si>
-  <si>
-    <t>Radio City Music Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">For more than 150 years, visitors have flocked to Central Park's 843 green acres in the heart of Manhattan. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since 1980, the Park has been managed by the Central Park Conservancy, in partnership with the public.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Central Park is open 6 am to 1 am daily. Visit the official website of Central Park to learn more about Park happenings and activities and to learn how you to help Central Park!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At New York City's most visited museum and attraction, you will experience the best of human creativity from across the globe. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With collections spanning more than 5,000 years of culture, from prehistory to the present.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Metropolitan is a journey through the world's greatest art. One Met. Many Worlds. Where will the Met take you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Museum of Modern Art's renowned collection of modern and contemporary art.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It includes Vincent van Gogh's "The Starry Night" and Andy Warhol's "Gold Marilyn Monroe," along with works by Jackson Pollock, Jasper Johns, Cindy Sherman, Elizabeth Murray, and many other great artists of our time. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoMA's collection also showcases photography, film, architecture, design, media, and performance art, and offers shopping and fine and casual dining options.</t>
+  </si>
+  <si>
+    <t>The world-famous Empire State Building offers unobstructed panoramic views of New York City and beyond from 8 a.M. Until 2 a.M. Daily. Our 86th and 102nd floor Observation Decks offer the two highest vantage points in New York City. Soaring 1,454 feet above Midtown Manhattan from base to antenna, the Empire State Building is the World's Most Famous Office Building. Named America's favorite building in a poll conducted by the American Institute of Architects, the Empire State Building is one of New York City's top tourist destinations. On a clear day, you can see up to five states from our Observation Decks - New York, New Jersey, Pennsylvania, Connecticut and Massachusetts. Guests can enjoy our outdoor viewing area on our open-air 86th floor Observatory, or our indoor climate-controlled viewing areas on the 86th and 102nd floors. We recently launched our new Multimedia Experience as well, which guides visitors through the extraordinary exhibits and breathtaking views with additional depth on the building's history in eight languages - including English, Spanish, French, Italian, Mandarin, Portuguese, Japanese and Korean. The Empire State Building aims to provide entertainment for guests of all ages. Bringing children? Have their picture taken with King Kong himself on our 80th floor from Thursdays through Mondays (12 p.M. Until 9 p.M.). Celebrating a first date or an anniversary? Enjoy romantic tunes from our saxophone player from 9 p.M. Until midnight every Thursday through Saturday night. Tickets can be purchased through our website. Our celebrated tower lights are often illuminated to commemorate holidays, events and special causes. In the Fall of 2012, we upgraded our tower lighting system from floodlights to one-of-a-kind LED tower lights. The state-of-the-art system allows customized lighting capabilities from a palette of over 16 million colors! To watch some of our recent light shows, visit our YouTube page.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction of the renowned icon only took one year and 45 days, and logged more than 7 million man hours. This is the fastest construction to date for a project of its scale. Additionally, from classics like An Affair to Remember and Sleepless in Seattle to recent hits such as Oblivion and Elf, our place in pop culture has been solidified since our early days. In fact, over 200 movies and TV shows have featured the Empire State Building in them!</t>
   </si>
   <si>
     <t>Top of the Rock Observation Deck, the newly opened, 3-tiered observation deck on the 67th, 69th and 70th floors of 30 Rockefeller Plaza, is New York City's most amazing attraction! The unforgettable experience includes a panoramic 360-degree, unobstructed view from the 70th floor observatory, 850 feet in the sky! Hours of Operation: 8:00 AM - Midnight, last elevator goes up at 11:00 PM.Main entrance is located on 50th Street between 5th &amp; 6th Avenues.</t>
-  </si>
-  <si>
-    <t>Helicopter rides</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The National September 11 Memorial &amp; Museum</t>
-  </si>
-  <si>
-    <t>200 Liberty Street, World Trade Center, New York City, NY 10281</t>
-  </si>
-  <si>
-    <t>+1 212-312-8800</t>
-  </si>
-  <si>
-    <t>info@911memorial.org</t>
-  </si>
-  <si>
-    <t>http://www.911memorial.org</t>
-  </si>
-  <si>
-    <t>Sun - Sat 9:00 am - 8:00 pm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group tours/walking tour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reigning as the world's tallest building from 1931 to 1970, the Empire State Building is known for its distinct Art Deco style. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Top of the Rock Observation Deck, the newly opened, 3-tiered observation deck on the 67th, 69th and 70th floors of 30 Rockefeller Plaza, is New York City's most amazing attraction! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The unforgettable experience includes a panoramic 360-degree, unobstructed view from the 70th floor observatory, 850 feet in the sky!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hours of Operation: 8:00 AM - Midnight, last elevator goes up at 11:00 PM.Main entrance is located on 50th Street between 5th &amp; 6th Avenues.</t>
   </si>
   <si>
     <t>The National September 11 Memorial &amp; Museum is a place of remembrance honoring those who perished in the terrorist attacks of September 11, 2001 and February 26, 1993. The 9/11 Memorial consists of two massive pools set within the original footprints of the Twin Towers with 30-foot waterfalls cascading down their sides. The nearly 3,000 names of the men, women, and children killed in the attacks are inscribed into bronze parapets surrounding the twin Memorial pools. The 9/11 Memorial is open daily from 7:30 a.m. - 9:00 p.m. and is free to the public. The 9/11 Memorial Museum displays monumental artifacts linked to the events of 9/11, while presenting intimate stories of loss, compassion, reckoning and recovery that are central to telling the story of the 2001 and 1993 attacks and the aftermath. It also explores the global impact of 9/11 and its continuing significance. The 9/11 Memorial Museum is open Sun - Thu, 9:00 a.m. - 8:00 p.m., last entry at 6:00 p.m. and Fri and Sat, 9:00 a.m. - 9:00 p.m., last entry at 7:00 p.m. Tickets are required. Open Daily.</t>
-  </si>
-  <si>
-    <t>Frick Collection</t>
-  </si>
-  <si>
-    <t>1 E. 70th St., Fifth Ave., New York City, NY 10021</t>
-  </si>
-  <si>
-    <t>212-288-0700</t>
-  </si>
-  <si>
-    <t>info@frick.org</t>
-  </si>
-  <si>
-    <t>http://www.frick.org</t>
-  </si>
-  <si>
-    <t>The High Line</t>
-  </si>
-  <si>
-    <t>Arts and crafts</t>
-  </si>
-  <si>
-    <t>Henry Frick once resided in this 18th-century French-style mansion; now its the home of his impressive art collection, which includes Titian, Vermeer, Rembrandt, El Greco, Goya, Whistler and more.</t>
-  </si>
-  <si>
-    <t>420 West 14th Street, Floor 2, New York City, NY 10014</t>
-  </si>
-  <si>
-    <t>+1 212-209-3370</t>
-  </si>
-  <si>
-    <t>http://groundzeromuseumworkshop.org</t>
-  </si>
-  <si>
-    <t>GroundZeroTICKET@aol.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The National September 11 Memorial &amp; Museum is a place of remembrance honoring those who perished in the terrorist attacks of September 11, 2001 and February 26, 1993. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The 9/11 Memorial consists of two massive pools set within the original footprints of the Twin Towers with 30-foot waterfalls cascading down their sides. The nearly 3,000 names of the men, women, and children killed in the attacks are inscribed into bronze parapets surrounding the twin Memorial pools. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 9/11 Memorial is open daily from 7:30 a.m. - 9:00 p.m. and is free to the public. The 9/11 Memorial Museum displays monumental artifacts linked to the events of 9/11, while presenting intimate stories of loss, compassion, reckoning and recovery that are central to telling the story of the 2001 and 1993 attacks and the aftermath. It also explores the global impact of 9/11 and its continuing significance. The 9/11 Memorial Museum is open Sun - Thu, 9:00 a.m. - 8:00 p.m., last entry at 6:00 p.m. and Fri and Sat, 9:00 a.m. - 9:00 p.m., last entry at 7:00 p.m. Tickets are required. Open Daily.</t>
+  </si>
+  <si>
+    <t>Henry Frick once resided in this 18th-century French-style mansion;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now its the home of his impressive art collection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It includes Titian, Vermeer, Rembrandt, El Greco, Goya, Whistler and more.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ground Zero Museum Workshop: Images &amp; Artifacts from the Recovery. Want to feel what it was like to be with FDNY Firefighters on the front lines after the 9/11 attacks? Want to educate your kids about this tough subject in a gentle and non-threatening way? Before you visit the 9/11 Memorial at Ground Zero, experience the Stunning Images by Official Ground Zero Photographer Gary Marlon Suson. "Rare Photos" (New York Times) are displayed, some in lifelike 3D installations, as well as artifacts &amp; rare video. Rated in Trip Advisor's "Top 25 Museums in the USA" for 2013 and 2014. Guests are allowed to hold World Trade Center artifacts. Daily 2-hour tours include self-guided audio narration in Dolby Stereo, in English, Italian, French and Spanish. Proceeds shared with 9/11 Charity. "Incredible Images" says Fox News Channel. Known worldwide as the "Biggest LITTLE Museum in New York." The "first stop" before heading to visit Ground Zero. On display are "The Frozen Clock" - "The Bible Page" and many more well-known images featured on FOX NEWS and CNN. Small gift area sells books and posters. The Only 9/11 Museum in NYC that donates to FDNY charities. No graphic footage nor images from 9/11 are shown at GZMW. Tastefully and realistically presented.</t>
-  </si>
-  <si>
-    <t>Between 10th and 12th Avenues, New York City, NY 10014</t>
-  </si>
-  <si>
-    <t>212 206-9922</t>
-  </si>
-  <si>
-    <t>http://www.thehighline.org</t>
-  </si>
-  <si>
-    <t>info@thehighline.org</t>
-  </si>
-  <si>
-    <t>Sun - Sat 7:00 am - 10:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground Zero Museum Workshop: Images &amp; Artifacts from the Recovery. Want to feel what it was like to be with FDNY Firefighters on the front lines after the 9/11 attacks? Want to educate your kids about this tough subject in a gentle and non-threatening way? Before you visit the 9/11 Memorial at Ground Zero, experience the Stunning Images by Official Ground Zero Photographer Gary Marlon Suson.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Rare Photos" (New York Times) are displayed, some in lifelike 3D installations, as well as artifacts &amp; rare video. Rated in Trip Advisor's "Top 25 Museums in the USA" for 2013 and 2014. Guests are allowed to hold World Trade Center artifacts. Daily 2-hour tours include self-guided audio narration in Dolby Stereo, in English, Italian, French and Spanish. Proceeds shared with 9/11 Charity. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incredible Images says Fox News Channel. Known worldwide as the "Biggest LITTLE Museum in New York." The "first stop" before heading to visit Ground Zero. On display are "The Frozen Clock" - "The Bible Page" and many more well-known images featured on FOX NEWS and CNN. Small gift area sells books and posters. The Only 9/11 Museum in NYC that donates to FDNY charities. No graphic footage nor images from 9/11 are shown at GZMW. Tastefully and realistically presented.</t>
   </si>
   <si>
     <t>The High Line is an elevated railway transformed into a public park on Manhattan's West Side. The park features lush horticulture, artworks, seasonal food vendors, community programing, and unique views of the Hudson River and New York City skyline. The High Line runs between Gansevoort Street to West 34th Street, between 10th and 11th Avenues.</t>
-  </si>
-  <si>
-    <t>Grand Central Terminal</t>
-  </si>
-  <si>
-    <t>42nd Street and Park Avenue, New York City, NY 10017</t>
-  </si>
-  <si>
-    <t>212-340-2583</t>
-  </si>
-  <si>
-    <t>http://www.grandcentralterminal.com</t>
-  </si>
-  <si>
-    <t>info@grandcentralterminal.com</t>
-  </si>
-  <si>
-    <t>Sun - Sat 5:30 am - 2:00 am</t>
-  </si>
-  <si>
-    <t>Group tours/walking tour, Dining, Shopping</t>
-  </si>
-  <si>
-    <t>Opened in 1913, and one of America's busiest terminals, Grand Central boasts a wide array of shops and restaurants to serve the more than 500,000 travelers who pass through every day.</t>
-  </si>
-  <si>
-    <t>1260 6th Avenue (Avenue of the Americas), (between 50th and 51st Streets), New York City, NY 10020</t>
-  </si>
-  <si>
-    <t>212-247-4777</t>
-  </si>
-  <si>
-    <t>http://www.radiocity.com</t>
-  </si>
-  <si>
-    <t>feedback@radiocity.com</t>
-  </si>
-  <si>
-    <t>2-3 hours</t>
-  </si>
-  <si>
-    <t>The art deco theater that is home of the famous dancing Rockettes.</t>
-  </si>
-  <si>
-    <t>Lincoln Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The David RubenStein Atrium, Broadway &amp; 64th Street - main entrance, New York City, NY 10023</t>
-  </si>
-  <si>
-    <t>212-875-5350</t>
-  </si>
-  <si>
-    <t>http://lc.lincolncenter.org</t>
-  </si>
-  <si>
-    <t>tour_desk@lincolncenter.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The High Line is an elevated railway transformed into a public park on Manhattan's West Side. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The park features lush horticulture, artworks, seasonal food vendors, community programing, and unique views of the Hudson River and New York City skyline. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The High Line runs between Gansevoort Street to West 34th Street, between 10th and 11th Avenues.</t>
+  </si>
+  <si>
+    <t>Opened in 1913, and one of America's busiest terminals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grand Central boasts a wide array of shops and restaurants to serve the more than 500,000 travelers who pass through every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consists of shops and restaurants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Learn more about Lincoln Center’s iconic landmarks—including the Revson Fountain, the newly transformed Alice Tully Hall, and the Metropolitan Opera House!Go behind the scenes at venues where a spectacular range of artists have performed, including Luciano Pavarotti, Mikhail Baryshnikov, Leonard Bernstein, Renée Fleming, and Bruce Springsteen.Each tour is unique, and you never know what might happen. You might sit in on a rehearsal, walk out onto a stage, or meet a star!Whether you’re just visiting New York City and want a glimpse of performing arts history, or you’re a Lincoln Center regular who wants to see your favorite venues from a new perspective, a guided tour will bring you closer to the world’s premier performing arts center.</t>
-  </si>
-  <si>
-    <t>The Cloisters</t>
-  </si>
-  <si>
-    <t>Fort Tryon Park, New York City, NY 10040</t>
-  </si>
-  <si>
-    <t>212 923 3700</t>
-  </si>
-  <si>
-    <t>http://www.metmuseum.org/visit/visit-the-cloisters</t>
-  </si>
-  <si>
-    <t>cloisters@metmuseum.org</t>
-  </si>
-  <si>
-    <t>Sun - Sat 10:00 am - 4:45 pm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Branch of the Metropolitan Museum of Art that was constructed out of sections of French medieval monasteries, offers an extensive collection of statues, paintings, stained glass windows and tapestries.</t>
-  </si>
-  <si>
-    <t>New York Public Library</t>
-  </si>
-  <si>
-    <t>476 5th Ave New York, NY 10018, New York City, NY 10018</t>
-  </si>
-  <si>
-    <t>212 930 0800</t>
-  </si>
-  <si>
-    <t>http://www.nypl.org</t>
-  </si>
-  <si>
-    <t>nyplweb@nypl.org</t>
-  </si>
-  <si>
-    <t>Two marble lions mark the entrance to this Beaux Arts masterpiece, a National Historic Landmark containing more than six million books.</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rockefeller Center</t>
-  </si>
-  <si>
-    <t>45 Rockefeller Plaza, New York City, NY 10111</t>
-  </si>
-  <si>
-    <t>212-332-6868</t>
-  </si>
-  <si>
-    <t>http://www.rockefellercenter.com</t>
-  </si>
-  <si>
-    <t>Ice skating</t>
-  </si>
-  <si>
-    <t>This complex is famous for its ice rink and the GE building, headquarters of the Peacock network.</t>
-  </si>
-  <si>
-    <t>Madison Square Garden</t>
-  </si>
-  <si>
-    <t>4 Penn Plaza, New York City, NY 10001</t>
-  </si>
-  <si>
-    <t>(212) 465-6741</t>
-  </si>
-  <si>
-    <t>Statue of Liberty</t>
-  </si>
-  <si>
-    <t>Liberty Island, New York City, NY 10004</t>
-  </si>
-  <si>
-    <t>+1 212-363-3200</t>
-  </si>
-  <si>
-    <t>go.nps.gov/statueofliberty</t>
-  </si>
-  <si>
-    <t>Sun - Sat 8:30 am - 4:00 pm</t>
-  </si>
-  <si>
-    <t>Group tours/city tour</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Statue of Liberty Enlightening the World was a gift of friendship from the people of France to the people of the United States and is a universal symbol of freedom and democracy. The Statue of Liberty was dedicated on October 28, 1886, designated as a National Monument in 1924 and restored for her centennial on July 4, 1986.</t>
-  </si>
-  <si>
-    <t>West 4th Street, Greenwich Village, New York City, NY 10001</t>
-  </si>
-  <si>
-    <t>Mon - Fri 9:00 am - 5:00 pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learn more about Lincoln Center’s iconic landmarks—including the Revson Fountain, the newly transformed Alice Tully Hall, and the Metropolitan Opera House!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go behind the scenes at venues where a spectacular range of artists have performed, including Luciano Pavarotti, Mikhail Baryshnikov, Leonard Bernstein, Renée Fleming, and Bruce Springsteen.Each tour is unique, and you never know what might happen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You might sit in on a rehearsal, walk out onto a stage, or meet a star!Whether you’re just visiting New York City and want a glimpse of performing arts history, or you’re a Lincoln Center regular who wants to see your favorite venues from a new perspective, a guided tour will bring you closer to the world’s premier performing arts center.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch of the Metropolitan Museum of Art that was constructed out of sections of French medieval monasteries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It offers an extensive collection of statues, paintings, stained glass windows and tapestries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statues, paintings, stained glass windows and tapestries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two marble lions mark the entrance to this Beaux Arts masterpiece.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a National Historic Landmark containing more than six million books.</t>
+  </si>
+  <si>
+    <t>The Statue of Liberty was dedicated on October 28, 1886, designated as a National Monument in 1924 and restored for her centennial on July 4, 1986.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Statue of Liberty Enlightening the World was a gift of friendship from the people of France to the people of the United States.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a universal symbol of freedom and democracy. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A 9.75-acre city park in Greenwich Village, characterized by its large, central fountain, and known as a major center of community activity for the neighborhood residents.</t>
-  </si>
-  <si>
-    <t>Central Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun - Thu 10:00 am - 5:30 pm; Fri - Sat 10:00 am - 9:00 pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun 11:00 am - 5:00 pm; Tue - Sat 10:00 am - 6:00 pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun 11:30 am - 4:30 pm; Mon - Sat 10:30 am - 4:30 pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun 1:00 pm - 5:00 pm; Mon 10:00 am - 6:00 pm; Tue - Wed 10:00 am - 8:00 pm; Thu - Sat 10:00 am - 6:00 pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri 10:30 am - 8:00 pm; Sat - Thu 10:30 am - 5:30 pm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Washington Square Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/5/51/WTCmemorialJune2012.png</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/b/b9/Above_Gotham.jpg/1920px-Above_Gotham.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/NYC_Top_of_the_Rock_Pano.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/41/Henry_C_Frick_House_001.JPG</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/d/db/Aerial_photo_of_WTC_groundzero.jpg</t>
-  </si>
-  <si>
-    <t>World Trade Center site: Ground Zero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/en/1/1d/High_Line_20th_Street_looking_downtown.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/7/73/Grand_Central_Station_Main_Concourse_Jan_2006.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/c/cf/Radio_City_Music_Hall_Panorama.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/d/d3/Lincoln_Center_Twilight.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/9/9d/The_Cloisters_Hudson_River_crop.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/5/5b/New_York_Public_Library_May_2011.JPG</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/d/d6/Britney_Spears_MSG.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/a/a1/Statue_of_Liberty_7.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/4e/Washington_Square_Arch_by_David_Shankbone.jpg</t>
-  </si>
-  <si>
-    <t>30 Rockefeller Center, New York City, NY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/1/11/Rockefeller_Center_%282006%29.JPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is characterized by its large, central fountain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is known as a major center of community activity for the neighborhood residents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,10 +778,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -687,7 +891,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="108">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -726,6 +930,23 @@
     <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -762,6 +983,23 @@
     <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1094,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1112,29 +1350,29 @@
     <col min="9" max="9" width="32.33203125" customWidth="1"/>
     <col min="10" max="10" width="40.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="51.5" customWidth="1"/>
-    <col min="13" max="13" width="56.33203125" customWidth="1"/>
-    <col min="14" max="14" width="111" customWidth="1"/>
+    <col min="12" max="15" width="51.5" customWidth="1"/>
+    <col min="16" max="16" width="56.33203125" customWidth="1"/>
+    <col min="17" max="17" width="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D1">
         <v>10022</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1155,426 +1393,507 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1">
+        <v>155</v>
+      </c>
+      <c r="O1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1">
         <v>40.783332999999999</v>
       </c>
-      <c r="P1">
+      <c r="S1">
         <v>-73.966667000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2">
         <v>10028</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2">
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2">
         <v>40.779446999999998</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>-73.96311</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>10036</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
       <c r="N3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
         <v>40.757730000000002</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>-73.985708000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>10019</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4">
+        <v>161</v>
+      </c>
+      <c r="O4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4">
         <v>40.761484000000003</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>-73.977664000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>10118</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5">
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5">
         <v>40.748432999999999</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>-73.985656000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6">
+        <v>168</v>
+      </c>
+      <c r="O6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6">
         <v>40.759</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>-73.978999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>144</v>
+        <v>49</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>10281</v>
       </c>
       <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>58</v>
       </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="N8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8">
+        <v>172</v>
+      </c>
+      <c r="O8" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8">
         <v>40.711694000000001</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>-74.013610999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>10021</v>
       </c>
       <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O9">
+      <c r="Q9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9">
         <v>40.7712</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>-73.967299999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>10014</v>
       </c>
       <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O10">
+        <v>179</v>
+      </c>
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10">
         <v>40.711641</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>-74.012253000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11">
         <v>10014</v>
       </c>
       <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
         <v>75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
       </c>
       <c r="J11" t="s">
         <v>3</v>
@@ -1583,384 +1902,465 @@
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="N11" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11">
+        <v>183</v>
+      </c>
+      <c r="O11" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11">
         <v>40.748333000000002</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>-74.004999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>10017</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N12" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" t="s">
         <v>83</v>
       </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12">
+      <c r="Q12" t="s">
+        <v>143</v>
+      </c>
+      <c r="R12">
         <v>40.752800000000001</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>-73.976522000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>10020</v>
       </c>
       <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s">
-        <v>94</v>
-      </c>
       <c r="N13" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13">
         <v>40.759721999999996</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>-73.979167000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>10023</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14">
+        <v>190</v>
+      </c>
+      <c r="O14" t="s">
+        <v>191</v>
+      </c>
+      <c r="P14" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14">
         <v>40.772311000000002</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>-73.983402999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>10040</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
-      </c>
-      <c r="O15">
+        <v>193</v>
+      </c>
+      <c r="O15" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15">
         <v>40.864840000000001</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>-73.931905</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16">
         <v>10018</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
-      </c>
-      <c r="O16">
+        <v>195</v>
+      </c>
+      <c r="O16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16">
         <v>40.752699999999997</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>-73.981800000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>10111</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
-      </c>
-      <c r="O17">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17">
         <v>40.758611000000002</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>-73.979167000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>10001</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18">
+        <v>118</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R18">
         <v>40.750556000000003</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>-73.993611000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D19">
         <v>10004</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M19" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>149</v>
+      </c>
+      <c r="R19">
         <v>40.689166999999998</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>-74.044443999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D20">
         <v>10001</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
-      </c>
-      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>150</v>
+      </c>
+      <c r="R20">
         <v>40.730832999999997</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>-73.997500000000002</v>
       </c>
     </row>

--- a/csv/Sites.xlsx
+++ b/csv/Sites.xlsx
@@ -1334,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
